--- a/data_output/prism_passive/all_passive_out_emg_sol_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,148 +513,148 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.0994330862732551</v>
+        <v>1.0994330883382517</v>
       </c>
       <c r="C2">
-        <v>1.7580685833487795</v>
+        <v>1.7580685695882283</v>
       </c>
       <c r="D2">
-        <v>13.286808541686682</v>
+        <v>13.286808569917062</v>
       </c>
       <c r="E2">
-        <v>7.4049384119645341</v>
+        <v>7.4049384242666587</v>
       </c>
       <c r="F2">
-        <v>7.286103659199286</v>
+        <v>7.2861036086718327</v>
       </c>
       <c r="G2">
-        <v>7.7956897730439838</v>
+        <v>7.7956897568303036</v>
       </c>
       <c r="H2">
-        <v>11.581254254339534</v>
+        <v>11.58125424683575</v>
       </c>
       <c r="I2">
-        <v>1.2853901509398811</v>
+        <v>1.2853901387484281</v>
       </c>
       <c r="J2">
-        <v>10.555586211486903</v>
+        <v>10.555586197130545</v>
       </c>
       <c r="K2">
-        <v>9.9847772262686085</v>
+        <v>9.9847771961994489</v>
       </c>
       <c r="L2">
-        <v>0.69728946290658711</v>
+        <v>0.69728946648144041</v>
       </c>
       <c r="M2">
-        <v>3.3357083113110422</v>
+        <v>3.3357082997574934</v>
       </c>
       <c r="N2">
-        <v>0.17019404846197908</v>
+        <v>0.17019404879616276</v>
       </c>
       <c r="O2">
-        <v>6.5740235631998942</v>
+        <v>6.5740236194446569</v>
       </c>
       <c r="P2">
-        <v>2.2249539452729072</v>
+        <v>2.2249539432923582</v>
       </c>
       <c r="Q2">
-        <v>3.0964402890608032</v>
+        <v>3.0964403078102585</v>
       </c>
       <c r="R2">
-        <v>5.7056655721616441</v>
+        <v>5.7056655588445722</v>
       </c>
       <c r="S2">
-        <v>5.5310939243095776</v>
+        <v>5.5310939154741208</v>
       </c>
       <c r="T2">
-        <v>1.2070688828394109</v>
+        <v>1.2070688805180716</v>
       </c>
       <c r="U2">
-        <v>3.9491137801242973</v>
+        <v>3.9491137691359506</v>
       </c>
       <c r="V2">
-        <v>14.53906904779536</v>
+        <v>14.539069031721377</v>
       </c>
       <c r="W2">
-        <v>3.2688525983272685</v>
+        <v>3.2688525792742746</v>
       </c>
       <c r="X2">
-        <v>0.35798565692864387</v>
+        <v>0.35798565220526468</v>
       </c>
       <c r="Y2">
-        <v>0.78351394670715124</v>
+        <v>0.7835140010740288</v>
       </c>
       <c r="AA2">
-        <v>2.8637454322938529</v>
+        <v>2.8637454294626528</v>
       </c>
       <c r="AB2">
-        <v>0.59847544533496089</v>
+        <v>0.59847543785442692</v>
       </c>
       <c r="AC2">
-        <v>6.5899518838953224</v>
+        <v>6.5899518664961931</v>
       </c>
       <c r="AD2">
-        <v>1.8041230093008469</v>
+        <v>1.8041229991746655</v>
       </c>
       <c r="AE2">
-        <v>3.0778231700682266</v>
+        <v>3.0778231416491577</v>
       </c>
       <c r="AF2">
-        <v>6.6354931686186749</v>
+        <v>6.6354931790681935</v>
       </c>
       <c r="AG2">
-        <v>8.5511313767126467</v>
+        <v>8.5511313255449277</v>
       </c>
       <c r="AH2">
-        <v>0.43686516291500316</v>
+        <v>0.43686516473964232</v>
       </c>
       <c r="AI2">
-        <v>11.171280072913037</v>
+        <v>11.171280097145218</v>
       </c>
       <c r="AJ2">
-        <v>10.561081602320602</v>
+        <v>10.561081528872936</v>
       </c>
       <c r="AK2">
-        <v>2.0366965496593954</v>
+        <v>2.0366965489221238</v>
       </c>
       <c r="AL2">
-        <v>1.8092502633940193</v>
+        <v>1.8092502623925792</v>
       </c>
       <c r="AM2">
-        <v>0.15909593499319341</v>
+        <v>0.15909593397877569</v>
       </c>
       <c r="AN2">
-        <v>3.2166496903447568</v>
+        <v>3.2166496700074267</v>
       </c>
       <c r="AO2">
-        <v>4.5445982732031585</v>
+        <v>4.5445982662004685</v>
       </c>
       <c r="AP2">
-        <v>3.6797088898166579</v>
+        <v>3.6797088767282178</v>
       </c>
       <c r="AQ2">
-        <v>3.6702370753837847</v>
+        <v>3.6702370794705077</v>
       </c>
       <c r="AR2">
-        <v>2.6852653562765862</v>
+        <v>2.6852653155780657</v>
       </c>
       <c r="AS2">
-        <v>1.5148632714346608</v>
+        <v>1.514863266389654</v>
       </c>
       <c r="AT2">
-        <v>0.90746983986713037</v>
+        <v>0.90746983847440821</v>
       </c>
       <c r="AU2">
-        <v>9.4670884398585855</v>
+        <v>9.4670884710710759</v>
       </c>
       <c r="AV2">
-        <v>1.2706017561628782</v>
+        <v>1.2706017534277163</v>
       </c>
       <c r="AW2">
-        <v>0.64088078565715323</v>
+        <v>0.6408807818138581</v>
       </c>
       <c r="AX2">
-        <v>0.20545036178463749</v>
+        <v>0.20545036146942158</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -667,148 +662,148 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.3883146186886188</v>
+        <v>6.3883146279121741</v>
       </c>
       <c r="C3">
-        <v>1.6261336376781159</v>
+        <v>1.6261336289100565</v>
       </c>
       <c r="D3">
-        <v>3.8823099811263653</v>
+        <v>3.8823100506212258</v>
       </c>
       <c r="E3">
-        <v>9.1039949377605414</v>
+        <v>9.1039949008362377</v>
       </c>
       <c r="F3">
-        <v>3.84573471292076</v>
+        <v>3.8457347015463386</v>
       </c>
       <c r="G3">
-        <v>6.043734033321515</v>
+        <v>6.0437340158143993</v>
       </c>
       <c r="H3">
-        <v>13.503289012522032</v>
+        <v>13.503288977421031</v>
       </c>
       <c r="I3">
-        <v>4.4600036535403795</v>
+        <v>4.4600036376532151</v>
       </c>
       <c r="J3">
-        <v>5.6496876655621566</v>
+        <v>5.6496876285757454</v>
       </c>
       <c r="K3">
-        <v>5.413472122826601</v>
+        <v>5.4134721022686678</v>
       </c>
       <c r="L3">
-        <v>2.12843558514481</v>
+        <v>2.1284355810258111</v>
       </c>
       <c r="M3">
-        <v>4.4286547157773803</v>
+        <v>4.4280757498574399</v>
       </c>
       <c r="N3">
-        <v>0.22614458859023373</v>
+        <v>0.22614458846323032</v>
       </c>
       <c r="O3">
-        <v>6.53874405484048</v>
+        <v>6.5387440478270467</v>
       </c>
       <c r="P3">
-        <v>2.9726136484383181</v>
+        <v>2.9726136230453135</v>
       </c>
       <c r="Q3">
-        <v>2.4393850156938162</v>
+        <v>2.4393850379638384</v>
       </c>
       <c r="R3">
-        <v>8.6722543544307111</v>
+        <v>8.6722543582275193</v>
       </c>
       <c r="S3">
-        <v>0.78389857627272808</v>
+        <v>0.78389857418736031</v>
       </c>
       <c r="T3">
-        <v>0.28652508025229395</v>
+        <v>0.28652508197621485</v>
       </c>
       <c r="U3">
-        <v>12.004593922831896</v>
+        <v>12.004593917535747</v>
       </c>
       <c r="V3">
-        <v>8.5843772561075848</v>
+        <v>8.5843772117945996</v>
       </c>
       <c r="W3">
-        <v>0.78880514379813271</v>
+        <v>0.78880514217953002</v>
       </c>
       <c r="X3">
-        <v>1.5990122657954018</v>
+        <v>1.5990122567744687</v>
       </c>
       <c r="Y3">
-        <v>1.7304490402563559</v>
+        <v>1.7304490198685891</v>
       </c>
       <c r="AA3">
-        <v>2.7077820631431737</v>
+        <v>2.707782060611212</v>
       </c>
       <c r="AB3">
-        <v>5.8277559647454078</v>
+        <v>5.8277559535404979</v>
       </c>
       <c r="AC3">
-        <v>4.5181479563512692</v>
+        <v>4.5181479447731379</v>
       </c>
       <c r="AD3">
-        <v>4.2606929176889272</v>
+        <v>4.2606928670905608</v>
       </c>
       <c r="AE3">
-        <v>1.3427025760471436</v>
+        <v>1.3427025767726646</v>
       </c>
       <c r="AF3">
-        <v>1.3570746922424475</v>
+        <v>1.3570747028910399</v>
       </c>
       <c r="AG3">
-        <v>4.3624845201901925</v>
+        <v>4.3624844725494603</v>
       </c>
       <c r="AH3">
-        <v>2.6590436875157599</v>
+        <v>2.6590436841985809</v>
       </c>
       <c r="AI3">
-        <v>5.2486660779323522</v>
+        <v>5.2486660739782822</v>
       </c>
       <c r="AJ3">
-        <v>5.8453393549307489</v>
+        <v>5.8453393566732386</v>
       </c>
       <c r="AK3">
-        <v>3.4597964129257357</v>
+        <v>3.4597964282805607</v>
       </c>
       <c r="AL3">
-        <v>2.7851819731549936</v>
+        <v>2.7851819612236897</v>
       </c>
       <c r="AM3">
-        <v>0.29079876494102469</v>
+        <v>0.29079876538191207</v>
       </c>
       <c r="AN3">
-        <v>4.4255690340843277</v>
+        <v>4.4255690177005844</v>
       </c>
       <c r="AO3">
-        <v>2.123431411323184</v>
+        <v>2.1234313845093169</v>
       </c>
       <c r="AP3">
-        <v>0.49523787862829333</v>
+        <v>0.49523787894730031</v>
       </c>
       <c r="AQ3">
-        <v>2.2232075739132338</v>
+        <v>2.2232075725304354</v>
       </c>
       <c r="AR3">
-        <v>1.4869771602048891</v>
+        <v>1.4869771629056254</v>
       </c>
       <c r="AS3">
-        <v>0.33715301033952277</v>
+        <v>0.33715301394165104</v>
       </c>
       <c r="AT3">
-        <v>3.3627797068396861</v>
+        <v>3.3627796930324161</v>
       </c>
       <c r="AU3">
-        <v>9.2633259174114251</v>
+        <v>9.2633258778809946</v>
       </c>
       <c r="AV3">
-        <v>1.283611514631827</v>
+        <v>1.283611507404032</v>
       </c>
       <c r="AW3">
-        <v>0.99993341457168694</v>
+        <v>0.99993340961069488</v>
       </c>
       <c r="AX3">
-        <v>2.5349580081106255</v>
+        <v>2.5349579856256619</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_sol_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>1.0994330883382517</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.7580685695882283</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>13.286808569917062</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>7.4049384242666587</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>7.2861036086718327</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>7.7956897568303036</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>11.58125424683575</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.2853901387484281</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>10.555586197130545</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>9.9847771961994489</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.69728946648144041</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3.3357082997574934</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.17019404879616276</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>6.5740236194446569</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2.2249539432923582</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.0964403078102585</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>5.7056655588445722</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>5.5310939154741208</v>
@@ -585,55 +474,55 @@
         <v>0.7835140010740288</v>
       </c>
       <c r="AA2">
-        <v>2.8637454294626528</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.59847543785442692</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>6.5899518664961931</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1.8041229991746655</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>3.0778231416491577</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>6.6354931790681935</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>8.5511313255449277</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.43686516473964232</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>11.171280097145218</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>10.561081528872936</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.0366965489221238</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.8092502623925792</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.15909593397877569</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.2166496700074267</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>4.5445982662004685</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>3.6797088767282178</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3.6702370794705077</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>2.6852653155780657</v>
@@ -656,61 +545,61 @@
       <c r="AX2">
         <v>0.20545036146942158</v>
       </c>
+      <c r="AY2">
+        <v>1.3895199213764802</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>6.3883146279121741</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.6261336289100565</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.8823100506212258</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>9.1039949008362377</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3.8457347015463386</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>6.0437340158143993</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>13.503288977421031</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.4600036376532151</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5.6496876285757454</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>5.4134721022686678</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.1284355810258111</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>4.4280757498574399</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.22614458846323032</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>6.5387440478270467</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2.9726136230453135</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.4393850379638384</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>8.6722543582275193</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0.78389857418736031</v>
@@ -734,55 +623,55 @@
         <v>1.7304490198685891</v>
       </c>
       <c r="AA3">
-        <v>2.707782060611212</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>5.8277559535404979</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>4.5181479447731379</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>4.2606928670905608</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.3427025767726646</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.3570747028910399</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>4.3624844725494603</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>2.6590436841985809</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>5.2486660739782822</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>5.8453393566732386</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>3.4597964282805607</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>2.7851819612236897</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.29079876538191207</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>4.4255690177005844</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>2.1234313845093169</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.49523787894730031</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>2.2232075725304354</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>1.4869771629056254</v>
@@ -804,6 +693,9 @@
       </c>
       <c r="AX3">
         <v>2.5349579856256619</v>
+      </c>
+      <c r="AY3">
+        <v>6.4870800731163341</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_sol_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.0994330862732551</v>
+        <v>5.1090777001051748</v>
       </c>
       <c r="C2">
-        <v>1.7580685833487795</v>
+        <v>5.7056655588445722</v>
       </c>
       <c r="D2">
-        <v>7.1540610723416007</v>
+        <v>3.2166496700074267</v>
       </c>
       <c r="E2">
-        <v>7.4049384119645341</v>
+        <v>3.6702370794705077</v>
       </c>
       <c r="F2">
         <v>7.286103659199286</v>
@@ -667,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.3883146186886188</v>
+        <v>6.5387440478270467</v>
       </c>
       <c r="C3">
-        <v>1.6261336376781159</v>
+        <v>8.6722543582275193</v>
       </c>
       <c r="D3">
-        <v>3.4470729223145979</v>
+        <v>4.4255690177005844</v>
       </c>
       <c r="E3">
-        <v>9.1039949377605414</v>
+        <v>1.5497740631580796</v>
       </c>
       <c r="F3">
         <v>3.84573471292076</v>

--- a/data_output/prism_passive/all_passive_out_emg_sol_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1.0994330862732551</v>
-      </c>
       <c r="C2">
-        <v>1.7580685833487795</v>
+        <v>5.1090777001051748</v>
       </c>
       <c r="D2">
-        <v>7.1540610723416007</v>
+        <v>0.15909593397877569</v>
       </c>
       <c r="E2">
-        <v>7.4049384119645341</v>
+        <v>3.2166496700074267</v>
       </c>
       <c r="F2">
         <v>7.286103659199286</v>
@@ -667,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.3883146186886188</v>
+        <v>0.22614458846323032</v>
       </c>
       <c r="C3">
-        <v>1.6261336376781159</v>
+        <v>6.5387440478270467</v>
       </c>
       <c r="D3">
-        <v>3.4470729223145979</v>
+        <v>0.29079876538191207</v>
       </c>
       <c r="E3">
-        <v>9.1039949377605414</v>
+        <v>4.4255690177005844</v>
       </c>
       <c r="F3">
         <v>3.84573471292076</v>

--- a/data_output/prism_passive/all_passive_out_emg_sol_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -512,146 +512,149 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1.0994330883382517</v>
+      </c>
       <c r="C2">
+        <v>1.7580685695882283</v>
+      </c>
+      <c r="D2">
+        <v>7.1540611205404563</v>
+      </c>
+      <c r="E2">
+        <v>7.4049384242666587</v>
+      </c>
+      <c r="F2">
+        <v>7.2861036086718327</v>
+      </c>
+      <c r="G2">
+        <v>7.7956897568303036</v>
+      </c>
+      <c r="H2">
+        <v>11.58125424683575</v>
+      </c>
+      <c r="I2">
+        <v>1.2853901387484281</v>
+      </c>
+      <c r="J2">
+        <v>10.555586197130545</v>
+      </c>
+      <c r="K2">
+        <v>9.9847771961994489</v>
+      </c>
+      <c r="L2">
+        <v>0.69728946648144041</v>
+      </c>
+      <c r="M2">
+        <v>3.3357082997574934</v>
+      </c>
+      <c r="O2">
         <v>5.1090777001051748</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>2.2249539432923582</v>
+      </c>
+      <c r="Q2">
+        <v>3.0964403078102585</v>
+      </c>
+      <c r="R2">
+        <v>5.7056655588445722</v>
+      </c>
+      <c r="S2">
+        <v>5.5310939154741208</v>
+      </c>
+      <c r="T2">
+        <v>0.83442305495487079</v>
+      </c>
+      <c r="U2">
+        <v>3.9491137691359506</v>
+      </c>
+      <c r="V2">
+        <v>14.539069031721377</v>
+      </c>
+      <c r="W2">
+        <v>3.2688525792742746</v>
+      </c>
+      <c r="X2">
+        <v>0.35798565220526468</v>
+      </c>
+      <c r="Y2">
+        <v>0.3411599344193158</v>
+      </c>
+      <c r="AA2">
+        <v>2.8637454294626528</v>
+      </c>
+      <c r="AB2">
+        <v>0.59847543785442692</v>
+      </c>
+      <c r="AC2">
+        <v>6.5899518664961931</v>
+      </c>
+      <c r="AD2">
+        <v>1.8041229991746655</v>
+      </c>
+      <c r="AE2">
+        <v>3.0778231416491577</v>
+      </c>
+      <c r="AF2">
+        <v>6.6354931790681935</v>
+      </c>
+      <c r="AG2">
+        <v>8.5511313255449277</v>
+      </c>
+      <c r="AH2">
+        <v>1.0131470453755518</v>
+      </c>
+      <c r="AI2">
+        <v>11.171280097145218</v>
+      </c>
+      <c r="AJ2">
+        <v>10.561081528872936</v>
+      </c>
+      <c r="AK2">
+        <v>2.0366965489221238</v>
+      </c>
+      <c r="AL2">
+        <v>1.8092502623925792</v>
+      </c>
+      <c r="AM2">
         <v>0.15909593397877569</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>3.2166496700074267</v>
       </c>
-      <c r="F2">
-        <v>7.286103659199286</v>
-      </c>
-      <c r="G2">
-        <v>7.7956897730439838</v>
-      </c>
-      <c r="H2">
-        <v>11.581254254339534</v>
-      </c>
-      <c r="I2">
-        <v>1.2853901509398811</v>
-      </c>
-      <c r="J2">
-        <v>10.555586211486903</v>
-      </c>
-      <c r="K2">
-        <v>9.9847772262686085</v>
-      </c>
-      <c r="L2">
-        <v>0.69728946290658711</v>
-      </c>
-      <c r="M2">
-        <v>3.3357083113110422</v>
-      </c>
-      <c r="O2">
-        <v>5.1090776836158796</v>
-      </c>
-      <c r="P2">
-        <v>2.2249539452729072</v>
-      </c>
-      <c r="Q2">
-        <v>3.0964402890608032</v>
-      </c>
-      <c r="R2">
-        <v>5.7056655721616441</v>
-      </c>
-      <c r="S2">
-        <v>5.5310939243095776</v>
-      </c>
-      <c r="T2">
-        <v>0.83442305780832859</v>
-      </c>
-      <c r="U2">
-        <v>3.9491137801242973</v>
-      </c>
-      <c r="V2">
-        <v>14.53906904779536</v>
-      </c>
-      <c r="W2">
-        <v>3.2688525983272685</v>
-      </c>
-      <c r="X2">
-        <v>0.35798565692864387</v>
-      </c>
-      <c r="Y2">
-        <v>0.34115993305626396</v>
-      </c>
-      <c r="AA2">
-        <v>2.8637454322938529</v>
-      </c>
-      <c r="AB2">
-        <v>0.59847544533496089</v>
-      </c>
-      <c r="AC2">
-        <v>6.5899518838953224</v>
-      </c>
-      <c r="AD2">
-        <v>1.8041230093008469</v>
-      </c>
-      <c r="AE2">
-        <v>3.0778231700682266</v>
-      </c>
-      <c r="AF2">
-        <v>6.6354931686186749</v>
-      </c>
-      <c r="AG2">
-        <v>8.5511313767126467</v>
-      </c>
-      <c r="AH2">
-        <v>1.0131470375475373</v>
-      </c>
-      <c r="AI2">
-        <v>11.171280072913037</v>
-      </c>
-      <c r="AJ2">
-        <v>10.561081602320602</v>
-      </c>
-      <c r="AK2">
-        <v>2.0366965496593954</v>
-      </c>
-      <c r="AL2">
-        <v>1.8092502633940193</v>
-      </c>
-      <c r="AM2">
-        <v>0.15909593499319341</v>
-      </c>
-      <c r="AN2">
-        <v>3.2166496903447568</v>
-      </c>
       <c r="AO2">
-        <v>4.5445982732031585</v>
+        <v>4.5445982662004685</v>
       </c>
       <c r="AP2">
-        <v>3.2297328246093344</v>
+        <v>3.2297328385651896</v>
       </c>
       <c r="AQ2">
-        <v>3.6702370753837847</v>
+        <v>3.6702370794705077</v>
       </c>
       <c r="AR2">
-        <v>2.6852653562765862</v>
+        <v>2.6852653155780657</v>
       </c>
       <c r="AS2">
-        <v>1.5148632714346608</v>
+        <v>1.514863266389654</v>
       </c>
       <c r="AT2">
-        <v>0.90746983986713037</v>
+        <v>0.90746983847440821</v>
       </c>
       <c r="AU2">
-        <v>9.4670884398585855</v>
+        <v>9.4670884710710759</v>
       </c>
       <c r="AV2">
-        <v>1.2706017561628782</v>
+        <v>1.2706017534277163</v>
       </c>
       <c r="AW2">
-        <v>0.64088078565715323</v>
+        <v>0.6408807818138581</v>
       </c>
       <c r="AX2">
-        <v>0.20545036178463749</v>
+        <v>0.20545036146942158</v>
       </c>
       <c r="AY2">
-        <v>1.3895199169425401</v>
+        <v>1.3895199213764802</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -659,151 +662,151 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>6.3883146279121741</v>
+      </c>
+      <c r="C3">
+        <v>1.6261336289100565</v>
+      </c>
+      <c r="D3">
+        <v>3.4470729191156217</v>
+      </c>
+      <c r="E3">
+        <v>9.1039949008362377</v>
+      </c>
+      <c r="F3">
+        <v>3.8457347015463386</v>
+      </c>
+      <c r="G3">
+        <v>6.0437340158143993</v>
+      </c>
+      <c r="H3">
+        <v>13.503288977421031</v>
+      </c>
+      <c r="I3">
+        <v>6.5924042557944649</v>
+      </c>
+      <c r="J3">
+        <v>5.6496876285757454</v>
+      </c>
+      <c r="K3">
+        <v>5.4134721022686678</v>
+      </c>
+      <c r="L3">
+        <v>2.1284355810258111</v>
+      </c>
+      <c r="M3">
+        <v>4.4280757498574399</v>
+      </c>
+      <c r="N3">
         <v>0.22614458846323032</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>6.5387440478270467</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>2.9726136230453135</v>
+      </c>
+      <c r="Q3">
+        <v>2.4393850379638384</v>
+      </c>
+      <c r="R3">
+        <v>8.6722543582275193</v>
+      </c>
+      <c r="S3">
+        <v>0.85544813895608129</v>
+      </c>
+      <c r="T3">
+        <v>0.31412648508493313</v>
+      </c>
+      <c r="U3">
+        <v>12.004593917535747</v>
+      </c>
+      <c r="V3">
+        <v>8.5843772117945996</v>
+      </c>
+      <c r="W3">
+        <v>0.54125257004340832</v>
+      </c>
+      <c r="X3">
+        <v>1.5990122567744687</v>
+      </c>
+      <c r="Y3">
+        <v>1.7304490198685891</v>
+      </c>
+      <c r="AA3">
+        <v>2.707782060611212</v>
+      </c>
+      <c r="AB3">
+        <v>5.8277559535404979</v>
+      </c>
+      <c r="AC3">
+        <v>5.6877414833550146</v>
+      </c>
+      <c r="AD3">
+        <v>4.2606928670905608</v>
+      </c>
+      <c r="AE3">
+        <v>1.3427025767726646</v>
+      </c>
+      <c r="AF3">
+        <v>1.3570747028910399</v>
+      </c>
+      <c r="AG3">
+        <v>4.3624844725494603</v>
+      </c>
+      <c r="AH3">
+        <v>1.0366425757751319</v>
+      </c>
+      <c r="AI3">
+        <v>5.2486660739782822</v>
+      </c>
+      <c r="AJ3">
+        <v>5.8453393566732386</v>
+      </c>
+      <c r="AK3">
+        <v>3.4597964282805607</v>
+      </c>
+      <c r="AL3">
+        <v>2.7851819612236897</v>
+      </c>
+      <c r="AM3">
         <v>0.29079876538191207</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>4.4255690177005844</v>
       </c>
-      <c r="F3">
-        <v>3.84573471292076</v>
-      </c>
-      <c r="G3">
-        <v>6.043734033321515</v>
-      </c>
-      <c r="H3">
-        <v>13.503289012522032</v>
-      </c>
-      <c r="I3">
-        <v>6.5924042777713963</v>
-      </c>
-      <c r="J3">
-        <v>5.6496876655621566</v>
-      </c>
-      <c r="K3">
-        <v>5.413472122826601</v>
-      </c>
-      <c r="L3">
-        <v>2.12843558514481</v>
-      </c>
-      <c r="M3">
-        <v>4.4286547157773803</v>
-      </c>
-      <c r="N3">
-        <v>0.22614458859023373</v>
-      </c>
-      <c r="O3">
-        <v>6.53874405484048</v>
-      </c>
-      <c r="P3">
-        <v>2.9726136484383181</v>
-      </c>
-      <c r="Q3">
-        <v>2.4393850156938162</v>
-      </c>
-      <c r="R3">
-        <v>8.6722543544307111</v>
-      </c>
-      <c r="S3">
-        <v>0.85544814479970177</v>
-      </c>
-      <c r="T3">
-        <v>0.31412648091354872</v>
-      </c>
-      <c r="U3">
-        <v>12.004593922831896</v>
-      </c>
-      <c r="V3">
-        <v>8.5843772561075848</v>
-      </c>
-      <c r="W3">
-        <v>0.54125258265083098</v>
-      </c>
-      <c r="X3">
-        <v>1.5990122657954018</v>
-      </c>
-      <c r="Y3">
-        <v>1.7304490402563559</v>
-      </c>
-      <c r="AA3">
-        <v>2.7077820631431737</v>
-      </c>
-      <c r="AB3">
-        <v>5.8277559647454078</v>
-      </c>
-      <c r="AC3">
-        <v>5.6877415004959984</v>
-      </c>
-      <c r="AD3">
-        <v>4.2606929176889272</v>
-      </c>
-      <c r="AE3">
-        <v>1.3427025760471436</v>
-      </c>
-      <c r="AF3">
-        <v>1.3570746922424475</v>
-      </c>
-      <c r="AG3">
-        <v>4.3624845201901925</v>
-      </c>
-      <c r="AH3">
-        <v>1.0366425866430284</v>
-      </c>
-      <c r="AI3">
-        <v>5.2486660779323522</v>
-      </c>
-      <c r="AJ3">
-        <v>5.8453393549307489</v>
-      </c>
-      <c r="AK3">
-        <v>3.4597964129257357</v>
-      </c>
-      <c r="AL3">
-        <v>2.7851819731549936</v>
-      </c>
-      <c r="AM3">
-        <v>0.29079876494102469</v>
-      </c>
-      <c r="AN3">
-        <v>4.4255690340843277</v>
-      </c>
       <c r="AO3">
-        <v>2.123431411323184</v>
+        <v>2.1234313845093169</v>
       </c>
       <c r="AP3">
-        <v>0.29363145976228394</v>
+        <v>0.2936314601320642</v>
       </c>
       <c r="AQ3">
-        <v>1.5497740536892353</v>
+        <v>1.5497740631580796</v>
       </c>
       <c r="AR3">
-        <v>1.4869771602048891</v>
+        <v>1.4869771629056254</v>
       </c>
       <c r="AS3">
-        <v>0.33715301033952277</v>
+        <v>0.33715301394165104</v>
       </c>
       <c r="AT3">
-        <v>3.3627797068396861</v>
+        <v>3.3627796930324161</v>
       </c>
       <c r="AU3">
-        <v>9.2633259174114251</v>
+        <v>9.2633258778809946</v>
       </c>
       <c r="AV3">
-        <v>1.283611514631827</v>
+        <v>1.283611507404032</v>
       </c>
       <c r="AW3">
-        <v>0.99993341457168694</v>
+        <v>0.99993340961069488</v>
       </c>
       <c r="AX3">
-        <v>2.5349580081106255</v>
+        <v>2.5349579856256619</v>
       </c>
       <c r="AY3">
-        <v>6.4870800978785015</v>
+        <v>6.4870800731163341</v>
       </c>
     </row>
   </sheetData>
